--- a/TecNMEmployeesAPI/wwwroot/exports/attendances/asistencias.xlsx
+++ b/TecNMEmployeesAPI/wwwroot/exports/attendances/asistencias.xlsx
@@ -31,13 +31,58 @@
     <x:t>Hora</x:t>
   </x:si>
   <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mariana del Carmen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Olivas García</x:t>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LUIS ARON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHULIN BACAB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARIANA DEL CARMEN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OLIVAS GARCIA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YUKEINY ARLETY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GARCIA HERRERA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ZAIDA LAURA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DZIB DELGADO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ELVIS DAVID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MORENO PAT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAMANTHA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SIERRA HERNANDEZ</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -402,7 +447,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E5"/>
+  <x:dimension ref="A1:E11"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -436,10 +481,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D2" s="1">
-        <x:v>45264</x:v>
+        <x:v>45352</x:v>
       </x:c>
       <x:c r="E2" s="2">
-        <x:v>0.291678240740741</x:v>
+        <x:v>0.442667898715278</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
@@ -453,44 +498,146 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D3" s="1">
-        <x:v>45261</x:v>
+        <x:v>45352</x:v>
       </x:c>
       <x:c r="E3" s="2">
-        <x:v>0.625</x:v>
+        <x:v>0.442666750416667</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
       <x:c r="A4" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D4" s="1">
-        <x:v>45261</x:v>
+        <x:v>45352</x:v>
       </x:c>
       <x:c r="E4" s="2">
-        <x:v>0.291666666666667</x:v>
+        <x:v>0.299911578090278</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D5" s="1">
-        <x:v>45266</x:v>
+        <x:v>45352</x:v>
       </x:c>
       <x:c r="E5" s="2">
-        <x:v>0.291342592592593</x:v>
+        <x:v>0.296567242002315</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:5">
+      <x:c r="A6" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D6" s="1">
+        <x:v>45352</x:v>
+      </x:c>
+      <x:c r="E6" s="2">
+        <x:v>0.296542845393518</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:5">
+      <x:c r="A7" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D7" s="1">
+        <x:v>45352</x:v>
+      </x:c>
+      <x:c r="E7" s="2">
+        <x:v>0.290212560162037</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:5">
+      <x:c r="A8" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D8" s="1">
+        <x:v>45352</x:v>
+      </x:c>
+      <x:c r="E8" s="2">
+        <x:v>0.287481544513889</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:5">
+      <x:c r="A9" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D9" s="1">
+        <x:v>45352</x:v>
+      </x:c>
+      <x:c r="E9" s="2">
+        <x:v>0.287469386550926</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:5">
+      <x:c r="A10" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D10" s="1">
+        <x:v>45352</x:v>
+      </x:c>
+      <x:c r="E10" s="2">
+        <x:v>0.286379674259259</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:5">
+      <x:c r="A11" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D11" s="1">
+        <x:v>45352</x:v>
+      </x:c>
+      <x:c r="E11" s="2">
+        <x:v>0.278514651215278</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
